--- a/ressources/PDP_modifie.xlsx
+++ b/ressources/PDP_modifie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\mes docs\pfe\ressources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\pfe\projet\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999539BA-B04E-4849-816A-23DA46D8719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E101F29-3D6A-4D27-BC31-81E90264FEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D464324D-8590-42E5-95C7-A5A3D07F6390}"/>
   </bookViews>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D0F694-D194-4646-A267-B077EB41DDE0}">
   <dimension ref="A1:AU43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE25" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7:AU7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +980,8 @@
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
